--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.7926906949274</v>
+        <v>759.7742922042238</v>
       </c>
       <c r="AB2" t="n">
-        <v>945.1730350314525</v>
+        <v>1039.556705469948</v>
       </c>
       <c r="AC2" t="n">
-        <v>854.9670471267362</v>
+        <v>940.3428725268952</v>
       </c>
       <c r="AD2" t="n">
-        <v>690792.6906949274</v>
+        <v>759774.2922042238</v>
       </c>
       <c r="AE2" t="n">
-        <v>945173.0350314525</v>
+        <v>1039556.705469948</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08614731332713e-06</v>
+        <v>3.007524344441694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.56875</v>
       </c>
       <c r="AH2" t="n">
-        <v>854967.0471267363</v>
+        <v>940342.8725268953</v>
       </c>
     </row>
     <row r="3">
@@ -2258,28 +2258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.6277665019214</v>
+        <v>270.1612376838584</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.3963052911827</v>
+        <v>369.646524071685</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.6272544003443</v>
+        <v>334.3679786164375</v>
       </c>
       <c r="AD3" t="n">
-        <v>235627.7665019214</v>
+        <v>270161.2376838584</v>
       </c>
       <c r="AE3" t="n">
-        <v>322396.3052911827</v>
+        <v>369646.524071685</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.919768682642424e-06</v>
+        <v>5.650991021734538e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.754166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>291627.2544003443</v>
+        <v>334367.9786164375</v>
       </c>
     </row>
     <row r="4">
@@ -2364,28 +2364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.241918632766</v>
+        <v>224.6900489601279</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.2973859543414</v>
+        <v>307.4308376124661</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.4549687686106</v>
+        <v>278.0900699527139</v>
       </c>
       <c r="AD4" t="n">
-        <v>190241.918632766</v>
+        <v>224690.0489601279</v>
       </c>
       <c r="AE4" t="n">
-        <v>260297.3859543414</v>
+        <v>307430.8376124661</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.356254889738562e-06</v>
+        <v>6.280257653802338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.977083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>235454.9687686106</v>
+        <v>278090.0699527138</v>
       </c>
     </row>
     <row r="5">
@@ -2470,28 +2470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.0500646195207</v>
+        <v>224.4981949468825</v>
       </c>
       <c r="AB5" t="n">
-        <v>260.0348828294175</v>
+        <v>307.1683344875423</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.217518573504</v>
+        <v>277.8526197576072</v>
       </c>
       <c r="AD5" t="n">
-        <v>190050.0646195207</v>
+        <v>224498.1949468825</v>
       </c>
       <c r="AE5" t="n">
-        <v>260034.8828294175</v>
+        <v>307168.3344875423</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.369384488214047e-06</v>
+        <v>6.299186128697425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.95625</v>
       </c>
       <c r="AH5" t="n">
-        <v>235217.518573504</v>
+        <v>277852.6197576072</v>
       </c>
     </row>
   </sheetData>
@@ -2767,28 +2767,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.3743408018583</v>
+        <v>469.7082899312842</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.8064745752499</v>
+        <v>642.6756043512455</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.0431899842324</v>
+        <v>581.3395466728379</v>
       </c>
       <c r="AD2" t="n">
-        <v>419374.3408018583</v>
+        <v>469708.2899312843</v>
       </c>
       <c r="AE2" t="n">
-        <v>573806.4745752499</v>
+        <v>642675.6043512456</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.781370807454805e-06</v>
+        <v>4.071822229856531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>519043.1899842324</v>
+        <v>581339.5466728378</v>
       </c>
     </row>
     <row r="3">
@@ -2873,28 +2873,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.2684854563374</v>
+        <v>216.5208456298972</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.7019799712829</v>
+        <v>296.2533732162349</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.7255103039359</v>
+        <v>267.9793670707856</v>
       </c>
       <c r="AD3" t="n">
-        <v>191268.4854563374</v>
+        <v>216520.8456298972</v>
       </c>
       <c r="AE3" t="n">
-        <v>261701.9799712829</v>
+        <v>296253.3732162349</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.383941431674152e-06</v>
+        <v>6.417925336684882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.170833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>236725.5103039359</v>
+        <v>267979.3670707856</v>
       </c>
     </row>
     <row r="4">
@@ -2979,28 +2979,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.5832549428128</v>
+        <v>215.8356151163727</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.7644173524424</v>
+        <v>295.3158105973944</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.8774273455598</v>
+        <v>267.1312841124094</v>
       </c>
       <c r="AD4" t="n">
-        <v>190583.2549428128</v>
+        <v>215835.6151163726</v>
       </c>
       <c r="AE4" t="n">
-        <v>260764.4173524424</v>
+        <v>295315.8105973944</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.406880572354192e-06</v>
+        <v>6.451507375694009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.133333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>235877.4273455598</v>
+        <v>267131.2841124095</v>
       </c>
     </row>
   </sheetData>
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.3450454792139</v>
+        <v>222.3289490701522</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.8067327721723</v>
+        <v>304.2002765786276</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.8202656445299</v>
+        <v>275.1678291298229</v>
       </c>
       <c r="AD2" t="n">
-        <v>191345.0454792139</v>
+        <v>222328.9490701522</v>
       </c>
       <c r="AE2" t="n">
-        <v>261806.7327721723</v>
+        <v>304200.2765786275</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.151218552367027e-06</v>
+        <v>6.422447497518827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.452083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>236820.2656445299</v>
+        <v>275167.8291298229</v>
       </c>
     </row>
     <row r="3">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.7654161302748</v>
+        <v>222.7493197212132</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.3819024423979</v>
+        <v>304.775446248853</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.340541928685</v>
+        <v>275.688105413978</v>
       </c>
       <c r="AD3" t="n">
-        <v>191765.4161302748</v>
+        <v>222749.3197212132</v>
       </c>
       <c r="AE3" t="n">
-        <v>262381.9024423978</v>
+        <v>304775.446248853</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.160143731194477e-06</v>
+        <v>6.436255850825731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.433333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>237340.541928685</v>
+        <v>275688.105413978</v>
       </c>
     </row>
   </sheetData>
@@ -3679,28 +3679,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.9413607889678</v>
+        <v>234.9419714899252</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.6733229722948</v>
+        <v>321.4579703006291</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.1725707448568</v>
+        <v>290.7784727843274</v>
       </c>
       <c r="AD2" t="n">
-        <v>202941.3607889678</v>
+        <v>234941.9714899252</v>
       </c>
       <c r="AE2" t="n">
-        <v>277673.3229722948</v>
+        <v>321457.9703006292</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.147585255184799e-06</v>
+        <v>6.268220579749098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.091666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>251172.5707448568</v>
+        <v>290778.4727843275</v>
       </c>
     </row>
     <row r="3">
@@ -3785,28 +3785,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.3506185051136</v>
+        <v>214.4364805520915</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.5001609801016</v>
+        <v>293.4014529610852</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.6882157919084</v>
+        <v>265.3996300820913</v>
       </c>
       <c r="AD3" t="n">
-        <v>182350.6185051136</v>
+        <v>214436.4805520915</v>
       </c>
       <c r="AE3" t="n">
-        <v>249500.1609801016</v>
+        <v>293401.4529610852</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345096986505698e-06</v>
+        <v>6.566718867990402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.724999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>225688.2157919084</v>
+        <v>265399.6300820913</v>
       </c>
     </row>
   </sheetData>
@@ -4082,28 +4082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.7812815483372</v>
+        <v>243.4047475334503</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.5590278437235</v>
+        <v>333.0371138347037</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.6874293969787</v>
+        <v>301.2525191109436</v>
       </c>
       <c r="AD2" t="n">
-        <v>205781.2815483372</v>
+        <v>243404.7475334503</v>
       </c>
       <c r="AE2" t="n">
-        <v>281559.0278437235</v>
+        <v>333037.1138347037</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.873797079389099e-06</v>
+        <v>6.122489760998446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>254687.4293969787</v>
+        <v>301252.5191109437</v>
       </c>
     </row>
     <row r="3">
@@ -4188,28 +4188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.6557777574513</v>
+        <v>244.2792437425643</v>
       </c>
       <c r="AB3" t="n">
-        <v>282.7555521370827</v>
+        <v>334.2336381280628</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.7697590911125</v>
+        <v>302.3348488050773</v>
       </c>
       <c r="AD3" t="n">
-        <v>206655.7777574513</v>
+        <v>244279.2437425643</v>
       </c>
       <c r="AE3" t="n">
-        <v>282755.5521370827</v>
+        <v>334233.6381280628</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.880268274112897e-06</v>
+        <v>6.132717406542575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.389583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>255769.7590911125</v>
+        <v>302334.8488050773</v>
       </c>
     </row>
   </sheetData>
@@ -4485,28 +4485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.0177373966219</v>
+        <v>527.7775819652434</v>
       </c>
       <c r="AB2" t="n">
-        <v>652.6767128433841</v>
+        <v>722.1285715484676</v>
       </c>
       <c r="AC2" t="n">
-        <v>590.3861634071304</v>
+        <v>653.2096341936967</v>
       </c>
       <c r="AD2" t="n">
-        <v>477017.7373966219</v>
+        <v>527777.5819652433</v>
       </c>
       <c r="AE2" t="n">
-        <v>652676.712843384</v>
+        <v>722128.5715484676</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.591870242345053e-06</v>
+        <v>3.778652088944756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>590386.1634071304</v>
+        <v>653209.6341936968</v>
       </c>
     </row>
     <row r="3">
@@ -4591,28 +4591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.2151209855576</v>
+        <v>222.6377584514293</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.838429049402</v>
+        <v>304.6228031977989</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.0854281016198</v>
+        <v>275.5500304014805</v>
       </c>
       <c r="AD3" t="n">
-        <v>197215.1209855576</v>
+        <v>222637.7584514293</v>
       </c>
       <c r="AE3" t="n">
-        <v>269838.429049402</v>
+        <v>304622.8031977989</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.323173757947265e-06</v>
+        <v>6.302695746280272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.206250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>244085.4281016199</v>
+        <v>275550.0304014805</v>
       </c>
     </row>
     <row r="4">
@@ -4697,28 +4697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.0188175115533</v>
+        <v>218.441454977425</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.0968615084286</v>
+        <v>298.8812356568254</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.8918277084144</v>
+        <v>270.3564300082751</v>
       </c>
       <c r="AD4" t="n">
-        <v>193018.8175115533</v>
+        <v>218441.454977425</v>
       </c>
       <c r="AE4" t="n">
-        <v>264096.8615084286</v>
+        <v>298881.2356568254</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.387783564334631e-06</v>
+        <v>6.396889497141446e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.099999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>238891.8277084144</v>
+        <v>270356.4300082751</v>
       </c>
     </row>
     <row r="5">
@@ -4803,28 +4803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.0000043343733</v>
+        <v>218.422641800245</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.0711204894321</v>
+        <v>298.8554946378289</v>
       </c>
       <c r="AC5" t="n">
-        <v>238.8685433761432</v>
+        <v>270.3331456760039</v>
       </c>
       <c r="AD5" t="n">
-        <v>193000.0043343733</v>
+        <v>218422.641800245</v>
       </c>
       <c r="AE5" t="n">
-        <v>264071.1204894321</v>
+        <v>298855.494637829</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.399897903032262e-06</v>
+        <v>6.414550825427915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.081250000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>238868.5433761432</v>
+        <v>270333.1456760039</v>
       </c>
     </row>
   </sheetData>
@@ -5100,28 +5100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.4187453247663</v>
+        <v>258.5103038839674</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.9548956588358</v>
+        <v>353.7052024437515</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.0413056171125</v>
+        <v>319.9480743508885</v>
       </c>
       <c r="AD2" t="n">
-        <v>221418.7453247663</v>
+        <v>258510.3038839674</v>
       </c>
       <c r="AE2" t="n">
-        <v>302954.8956588358</v>
+        <v>353705.2024437515</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.635754120775008e-06</v>
+        <v>5.82533213168221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.25625</v>
       </c>
       <c r="AH2" t="n">
-        <v>274041.3056171125</v>
+        <v>319948.0743508885</v>
       </c>
     </row>
   </sheetData>
@@ -5397,28 +5397,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.0811531357924</v>
+        <v>332.2472172456568</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.2700753145542</v>
+        <v>454.5953003482442</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.2597383020938</v>
+        <v>411.2093629115182</v>
       </c>
       <c r="AD2" t="n">
-        <v>291081.1531357924</v>
+        <v>332247.2172456568</v>
       </c>
       <c r="AE2" t="n">
-        <v>398270.0753145542</v>
+        <v>454595.3003482441</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.400558113675215e-06</v>
+        <v>5.049295581534075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.527083333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>360259.7383020938</v>
+        <v>411209.3629115182</v>
       </c>
     </row>
     <row r="3">
@@ -5503,28 +5503,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.7118884773129</v>
+        <v>218.4741475646119</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.0991988448278</v>
+        <v>298.9259670969097</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.8483279376169</v>
+        <v>270.3968923424987</v>
       </c>
       <c r="AD3" t="n">
-        <v>185711.8884773129</v>
+        <v>218474.1475646119</v>
       </c>
       <c r="AE3" t="n">
-        <v>254099.1988448278</v>
+        <v>298925.9670969097</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.398646020930872e-06</v>
+        <v>6.531299620759828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.364583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>229848.3279376169</v>
+        <v>270396.8923424987</v>
       </c>
     </row>
     <row r="4">
@@ -5609,28 +5609,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.7713353408297</v>
+        <v>218.5335944281287</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.180536666102</v>
+        <v>299.0073049181839</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.9219029913871</v>
+        <v>270.4704673962689</v>
       </c>
       <c r="AD4" t="n">
-        <v>185771.3353408297</v>
+        <v>218533.5944281287</v>
       </c>
       <c r="AE4" t="n">
-        <v>254180.536666102</v>
+        <v>299007.3049181839</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.409841273980008e-06</v>
+        <v>6.547922816089981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.345833333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>229921.9029913871</v>
+        <v>270470.4673962689</v>
       </c>
     </row>
   </sheetData>
@@ -5906,28 +5906,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.2670102655495</v>
+        <v>419.3327061408581</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.2474143560639</v>
+        <v>573.7495081952779</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.0273102491201</v>
+        <v>518.9916603956121</v>
       </c>
       <c r="AD2" t="n">
-        <v>369267.0102655495</v>
+        <v>419332.7061408581</v>
       </c>
       <c r="AE2" t="n">
-        <v>505247.4143560639</v>
+        <v>573749.5081952779</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.974916093208167e-06</v>
+        <v>4.374442995336609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.66875</v>
       </c>
       <c r="AH2" t="n">
-        <v>457027.3102491202</v>
+        <v>518991.6603956122</v>
       </c>
     </row>
     <row r="3">
@@ -6012,28 +6012,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.4735223358897</v>
+        <v>213.5491302093805</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.8777881248178</v>
+        <v>292.1873410750543</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.2662939600092</v>
+        <v>264.3013913304461</v>
       </c>
       <c r="AD3" t="n">
-        <v>188473.5223358897</v>
+        <v>213549.1302093805</v>
       </c>
       <c r="AE3" t="n">
-        <v>257877.7881248178</v>
+        <v>292187.3410750544</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.40531949358362e-06</v>
+        <v>6.477768917557913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.204166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>233266.2939600092</v>
+        <v>264301.3913304461</v>
       </c>
     </row>
     <row r="4">
@@ -6118,28 +6118,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.9578559006127</v>
+        <v>214.0334637741036</v>
       </c>
       <c r="AB4" t="n">
-        <v>258.5404746753605</v>
+        <v>292.850027625597</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.8657346362547</v>
+        <v>264.9008320066915</v>
       </c>
       <c r="AD4" t="n">
-        <v>188957.8559006127</v>
+        <v>214033.4637741036</v>
       </c>
       <c r="AE4" t="n">
-        <v>258540.4746753605</v>
+        <v>292850.027625597</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.406233586714118e-06</v>
+        <v>6.479113038926891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.204166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>233865.7346362547</v>
+        <v>264900.8320066915</v>
       </c>
     </row>
   </sheetData>
@@ -6415,28 +6415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.6480254439163</v>
+        <v>665.7219919022206</v>
       </c>
       <c r="AB2" t="n">
-        <v>828.6743477174956</v>
+        <v>910.8701989021006</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.5868310230888</v>
+        <v>823.9380255332367</v>
       </c>
       <c r="AD2" t="n">
-        <v>605648.0254439162</v>
+        <v>665721.9919022205</v>
       </c>
       <c r="AE2" t="n">
-        <v>828674.3477174956</v>
+        <v>910870.1989021006</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.247963024406434e-06</v>
+        <v>3.252291099711726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.62708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>749586.8310230889</v>
+        <v>823938.0255332367</v>
       </c>
     </row>
     <row r="3">
@@ -6521,28 +6521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.1628987804223</v>
+        <v>255.4908796137386</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.6048351297116</v>
+        <v>349.5738929494617</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.7246543735749</v>
+        <v>316.2110512365096</v>
       </c>
       <c r="AD3" t="n">
-        <v>221162.8987804223</v>
+        <v>255490.8796137386</v>
       </c>
       <c r="AE3" t="n">
-        <v>302604.8351297116</v>
+        <v>349573.8929494616</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.063303086962685e-06</v>
+        <v>5.878675192466436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.539583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>273724.6543735749</v>
+        <v>316211.0512365096</v>
       </c>
     </row>
     <row r="4">
@@ -6627,28 +6627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.6511927221392</v>
+        <v>221.8938327008838</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.7526404686629</v>
+        <v>303.6049311662153</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.2485288170027</v>
+        <v>274.6293026479986</v>
       </c>
       <c r="AD4" t="n">
-        <v>187651.1927221392</v>
+        <v>221893.8327008839</v>
       </c>
       <c r="AE4" t="n">
-        <v>256752.6404686629</v>
+        <v>303604.9311662153</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.382402960251229e-06</v>
+        <v>6.340340116020727e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.989583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>232248.5288170027</v>
+        <v>274629.3026479986</v>
       </c>
     </row>
     <row r="5">
@@ -6733,28 +6733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.4428821421852</v>
+        <v>221.6855221209298</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.4676207431557</v>
+        <v>303.3199114407082</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.9907109740701</v>
+        <v>274.3714848050661</v>
       </c>
       <c r="AD5" t="n">
-        <v>187442.8821421852</v>
+        <v>221685.5221209298</v>
       </c>
       <c r="AE5" t="n">
-        <v>256467.6207431557</v>
+        <v>303319.9114407082</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.395343415942193e-06</v>
+        <v>6.359062011538136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.970833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>231990.7109740701</v>
+        <v>274371.4848050661</v>
       </c>
     </row>
   </sheetData>
@@ -7030,28 +7030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.8338412878097</v>
+        <v>256.1318268745844</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.2593365019843</v>
+        <v>350.450865268348</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.030375264004</v>
+        <v>317.00432654812</v>
       </c>
       <c r="AD2" t="n">
-        <v>223833.8412878097</v>
+        <v>256131.8268745844</v>
       </c>
       <c r="AE2" t="n">
-        <v>306259.3365019843</v>
+        <v>350450.865268348</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.917340825584753e-06</v>
+        <v>5.88261044571105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.460416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>277030.375264004</v>
+        <v>317004.32654812</v>
       </c>
     </row>
     <row r="3">
@@ -7136,28 +7136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.406673169953</v>
+        <v>215.7899101027483</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.9451015623778</v>
+        <v>295.2532749813906</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.9952532729995</v>
+        <v>267.0747168078278</v>
       </c>
       <c r="AD3" t="n">
-        <v>183406.673169953</v>
+        <v>215789.9101027483</v>
       </c>
       <c r="AE3" t="n">
-        <v>250945.1015623778</v>
+        <v>295253.2749813906</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.367555028655125e-06</v>
+        <v>6.558690187481773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.587500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>226995.2532729995</v>
+        <v>267074.7168078278</v>
       </c>
     </row>
     <row r="4">
@@ -7242,28 +7242,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.5885611573837</v>
+        <v>215.971798090179</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.1939687311121</v>
+        <v>295.502142150125</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.2203689084371</v>
+        <v>267.2998324432655</v>
       </c>
       <c r="AD4" t="n">
-        <v>183588.5611573837</v>
+        <v>215971.798090179</v>
       </c>
       <c r="AE4" t="n">
-        <v>251193.9687311121</v>
+        <v>295502.142150125</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.37773655126873e-06</v>
+        <v>6.573979623338071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.570833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>227220.3689084371</v>
+        <v>267299.8324432655</v>
       </c>
     </row>
   </sheetData>
@@ -7539,28 +7539,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.7054006629508</v>
+        <v>222.0529172852515</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.931542515424</v>
+        <v>303.8225977128636</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.028602317548</v>
+        <v>274.8261954049318</v>
       </c>
       <c r="AD2" t="n">
-        <v>190705.4006629508</v>
+        <v>222052.9172852515</v>
       </c>
       <c r="AE2" t="n">
-        <v>260931.542515424</v>
+        <v>303822.5977128636</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.228222816864185e-06</v>
+        <v>6.485022998912981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.164583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>236028.602317548</v>
+        <v>274826.1954049318</v>
       </c>
     </row>
     <row r="3">
@@ -7645,28 +7645,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.4168119604016</v>
+        <v>221.7643285827024</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.5366827209614</v>
+        <v>303.4277379184011</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.6714273876797</v>
+        <v>274.4690204750634</v>
       </c>
       <c r="AD3" t="n">
-        <v>190416.8119604017</v>
+        <v>221764.3285827024</v>
       </c>
       <c r="AE3" t="n">
-        <v>260536.6827209614</v>
+        <v>303427.7379184011</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.246948632200484e-06</v>
+        <v>6.513743657305189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.129166666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>235671.4273876797</v>
+        <v>274469.0204750634</v>
       </c>
     </row>
   </sheetData>
@@ -13067,28 +13067,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.0191879307022</v>
+        <v>232.2751475265871</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.4656124491354</v>
+        <v>317.809104102022</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.1299469803947</v>
+        <v>287.4778492544983</v>
       </c>
       <c r="AD2" t="n">
-        <v>194019.1879307022</v>
+        <v>232275.1475265871</v>
       </c>
       <c r="AE2" t="n">
-        <v>265465.6124491354</v>
+        <v>317809.104102022</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.031566658900652e-06</v>
+        <v>6.29924338040618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.858333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>240129.9469803947</v>
+        <v>287477.8492544983</v>
       </c>
     </row>
     <row r="3">
@@ -13173,28 +13173,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.6174342114753</v>
+        <v>232.8733938073601</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.284159403252</v>
+        <v>318.6276510561386</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.8703729620485</v>
+        <v>288.2182752361521</v>
       </c>
       <c r="AD3" t="n">
-        <v>194617.4342114753</v>
+        <v>232873.3938073601</v>
       </c>
       <c r="AE3" t="n">
-        <v>266284.159403252</v>
+        <v>318627.6510561386</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.039280771480401e-06</v>
+        <v>6.311296529148348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.841666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>240870.3729620485</v>
+        <v>288218.2752361521</v>
       </c>
     </row>
   </sheetData>
@@ -13470,28 +13470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.9994176966583</v>
+        <v>288.7499546516495</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.2190119038862</v>
+        <v>395.0804267033313</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.2261798907172</v>
+        <v>357.3745052776261</v>
       </c>
       <c r="AD2" t="n">
-        <v>244999.4176966583</v>
+        <v>288749.9546516495</v>
       </c>
       <c r="AE2" t="n">
-        <v>335219.0119038862</v>
+        <v>395080.4267033314</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.263264770624827e-06</v>
+        <v>5.31806471265905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>303226.1798907171</v>
+        <v>357374.5052776261</v>
       </c>
     </row>
   </sheetData>
@@ -13767,28 +13767,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.4933154580777</v>
+        <v>373.894042308163</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.9320227795651</v>
+        <v>511.5783237270147</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.5139490265868</v>
+        <v>462.7540065151945</v>
       </c>
       <c r="AD2" t="n">
-        <v>332493.3154580777</v>
+        <v>373894.042308163</v>
       </c>
       <c r="AE2" t="n">
-        <v>454932.0227795651</v>
+        <v>511578.3237270147</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.180487419974828e-06</v>
+        <v>4.698791064078492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.07916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>411513.9490265868</v>
+        <v>462754.0065151945</v>
       </c>
     </row>
     <row r="3">
@@ -13873,28 +13873,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.0749807876335</v>
+        <v>220.0931711439256</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.9642418791961</v>
+        <v>301.141186584405</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.53537388239</v>
+        <v>272.4006943911882</v>
       </c>
       <c r="AD3" t="n">
-        <v>187074.9807876335</v>
+        <v>220093.1711439256</v>
       </c>
       <c r="AE3" t="n">
-        <v>255964.2418791961</v>
+        <v>301141.186584405</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.402674724128677e-06</v>
+        <v>6.504427127067145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>231535.37388239</v>
+        <v>272400.6943911882</v>
       </c>
     </row>
     <row r="4">
@@ -13979,28 +13979,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.0324543032606</v>
+        <v>220.0506446595527</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.9060552671411</v>
+        <v>301.08299997235</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.482740518924</v>
+        <v>272.3480610277223</v>
       </c>
       <c r="AD4" t="n">
-        <v>187032.4543032606</v>
+        <v>220050.6446595528</v>
       </c>
       <c r="AE4" t="n">
-        <v>255906.0552671411</v>
+        <v>301082.99997235</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.414368823979576e-06</v>
+        <v>6.521703765715909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.2625</v>
       </c>
       <c r="AH4" t="n">
-        <v>231482.740518924</v>
+        <v>272348.0610277223</v>
       </c>
     </row>
   </sheetData>
@@ -14276,28 +14276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>532.0243378131108</v>
+        <v>591.6418768434858</v>
       </c>
       <c r="AB2" t="n">
-        <v>727.9391702531652</v>
+        <v>809.5105172947201</v>
       </c>
       <c r="AC2" t="n">
-        <v>658.4656775132446</v>
+        <v>732.2519696792582</v>
       </c>
       <c r="AD2" t="n">
-        <v>532024.3378131108</v>
+        <v>591641.8768434857</v>
       </c>
       <c r="AE2" t="n">
-        <v>727939.1702531652</v>
+        <v>809510.51729472</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417010772436915e-06</v>
+        <v>3.509908154173956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.77916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>658465.6775132446</v>
+        <v>732251.9696792582</v>
       </c>
     </row>
     <row r="3">
@@ -14382,28 +14382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.0036799224822</v>
+        <v>241.9490190847162</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.5998113445238</v>
+        <v>331.0453219489401</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.43800478823</v>
+        <v>299.4508210472592</v>
       </c>
       <c r="AD3" t="n">
-        <v>208003.6799224822</v>
+        <v>241949.0190847162</v>
       </c>
       <c r="AE3" t="n">
-        <v>284599.8113445238</v>
+        <v>331045.3219489401</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.201189082033468e-06</v>
+        <v>6.100836613727063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.352083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>257438.00478823</v>
+        <v>299450.8210472592</v>
       </c>
     </row>
     <row r="4">
@@ -14488,28 +14488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.4273233072492</v>
+        <v>221.0143613379199</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.3922853938747</v>
+        <v>302.4015996478704</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.872740963391</v>
+        <v>273.5408154008778</v>
       </c>
       <c r="AD4" t="n">
-        <v>195427.3233072492</v>
+        <v>221014.3613379199</v>
       </c>
       <c r="AE4" t="n">
-        <v>267392.2853938747</v>
+        <v>302401.5996478704</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.373186658625505e-06</v>
+        <v>6.350606165217265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>241872.740963391</v>
+        <v>273540.8154008777</v>
       </c>
     </row>
     <row r="5">
@@ -14594,28 +14594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.3720333322499</v>
+        <v>220.9590713629206</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.3166352108591</v>
+        <v>302.3259494648548</v>
       </c>
       <c r="AC5" t="n">
-        <v>241.8043107276668</v>
+        <v>273.4723851651535</v>
       </c>
       <c r="AD5" t="n">
-        <v>195372.0333322499</v>
+        <v>220959.0713629206</v>
       </c>
       <c r="AE5" t="n">
-        <v>267316.6352108591</v>
+        <v>302325.9494648548</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.385493381778212e-06</v>
+        <v>6.368477607263547e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.04375</v>
       </c>
       <c r="AH5" t="n">
-        <v>241804.3107276668</v>
+        <v>273472.3851651535</v>
       </c>
     </row>
   </sheetData>
@@ -14891,28 +14891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.5998409852546</v>
+        <v>358.4398118927718</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.6622080819453</v>
+        <v>490.433163880149</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.2783061176502</v>
+        <v>443.6269110466955</v>
       </c>
       <c r="AD2" t="n">
-        <v>301599.8409852546</v>
+        <v>358439.8118927718</v>
       </c>
       <c r="AE2" t="n">
-        <v>412662.2080819453</v>
+        <v>490433.163880149</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.663513106826912e-06</v>
+        <v>4.43991765952174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.90208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>373278.3061176502</v>
+        <v>443626.9110466954</v>
       </c>
     </row>
   </sheetData>
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.1379367610443</v>
+        <v>223.6799599309799</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.9456486687812</v>
+        <v>306.0487892408036</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.9003095678448</v>
+        <v>276.8399223379253</v>
       </c>
       <c r="AD2" t="n">
-        <v>184137.9367610443</v>
+        <v>223679.9599309799</v>
       </c>
       <c r="AE2" t="n">
-        <v>251945.6486687812</v>
+        <v>306048.7892408036</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.259347239986434e-06</v>
+        <v>6.482328768748008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.987500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>227900.3095678448</v>
+        <v>276839.9223379253</v>
       </c>
     </row>
     <row r="3">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.0815579864638</v>
+        <v>213.8517218897269</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.1320205083728</v>
+        <v>292.6013603615069</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.3552101301129</v>
+        <v>264.6758971972794</v>
       </c>
       <c r="AD3" t="n">
-        <v>182081.5579864638</v>
+        <v>213851.7218897268</v>
       </c>
       <c r="AE3" t="n">
-        <v>249132.0205083727</v>
+        <v>292601.3603615069</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.305724367470088e-06</v>
+        <v>6.552910426161819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.902083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>225355.2101301129</v>
+        <v>264675.8971972794</v>
       </c>
     </row>
   </sheetData>
@@ -15591,28 +15591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.6065330612347</v>
+        <v>292.3522979718222</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.259158631053</v>
+        <v>400.0093117581626</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.4035477021717</v>
+        <v>361.8329844605578</v>
       </c>
       <c r="AD2" t="n">
-        <v>251606.5330612347</v>
+        <v>292352.2979718221</v>
       </c>
       <c r="AE2" t="n">
-        <v>344259.158631053</v>
+        <v>400009.3117581626</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.650081082490501e-06</v>
+        <v>5.449245082095103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.972916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>311403.5477021717</v>
+        <v>361832.9844605578</v>
       </c>
     </row>
     <row r="3">
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.6786510855901</v>
+        <v>217.1729434971222</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.6854778622568</v>
+        <v>297.1456022866992</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.5695305014521</v>
+        <v>268.7864430510165</v>
       </c>
       <c r="AD3" t="n">
-        <v>184678.6510855901</v>
+        <v>217172.9434971222</v>
       </c>
       <c r="AE3" t="n">
-        <v>252685.4778622568</v>
+        <v>297145.6022866992</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.382895862189339e-06</v>
+        <v>6.5432721034444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.472916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>228569.5305014521</v>
+        <v>268786.4430510165</v>
       </c>
     </row>
     <row r="4">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.7866259560099</v>
+        <v>217.280918367542</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.8332138434802</v>
+        <v>297.2933382679226</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.7031667679763</v>
+        <v>268.9200793175406</v>
       </c>
       <c r="AD4" t="n">
-        <v>184786.6259560099</v>
+        <v>217280.918367542</v>
       </c>
       <c r="AE4" t="n">
-        <v>252833.2138434802</v>
+        <v>297293.3382679226</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.393587002506765e-06</v>
+        <v>6.559233021155568e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.454166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>228703.1667679763</v>
+        <v>268920.0793175406</v>
       </c>
     </row>
   </sheetData>
